--- a/excel files/Escape_case_study_glucose.xlsx
+++ b/excel files/Escape_case_study_glucose.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0996E19-99D3-4912-BFE0-285C908085CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AD23D1-F5CE-4D06-8B44-72D6ADFFA157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="683" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" activeTab="1" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="input_output_intervals" sheetId="1" r:id="rId1"/>
@@ -286,7 +286,7 @@
     <t>{'pH':[4,8.5]}</t>
   </si>
   <si>
-    <t>ace ==  (pH * 0.04415280212258921  - 0.16077127063620666) * glu , prop ==  ( pH * 0.06469780336862108 + -0.24145773170908502) * glu, but ==  ( pH * -0.1258514835498583 + 1.1420129213229466) * glu</t>
+    <t>ace ==  (pH * 0.04  - 0.1607) * glu , prop ==  ( pH * 0.06469780336862108 + -0.24145773170908502) * glu, but ==  ( pH * -0.1258514835498583 + 1.1420129213229466) * glu</t>
   </si>
 </sst>
 </file>
@@ -1586,26 +1586,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AE4236-3006-4E07-A9E2-DEE610CD0DBE}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>3</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1752,27 +1752,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2DC50F-7E38-4E45-9660-C41E1DA6142A}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.1796875" customWidth="1"/>
-    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>74</v>
       </c>
@@ -2058,17 +2058,17 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>46</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>69</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>48</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>70</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -2243,21 +2243,21 @@
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="12" max="12" width="8.81640625" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -2688,9 +2688,9 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>59</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>67</v>
       </c>

--- a/excel files/Escape_case_study_glucose.xlsx
+++ b/excel files/Escape_case_study_glucose.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AD23D1-F5CE-4D06-8B44-72D6ADFFA157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C481BB8-5934-4E3D-AC76-3C26265589BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" activeTab="1" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
+    <workbookView xWindow="1080" yWindow="680" windowWidth="18090" windowHeight="8960" tabRatio="683" activeTab="2" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="input_output_intervals" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="83">
   <si>
     <t>components</t>
   </si>
@@ -265,9 +265,6 @@
     <t>open_fermentation</t>
   </si>
   <si>
-    <t>Glucose_open_fermentation.json</t>
-  </si>
-  <si>
     <t>Propionate, Acetate, Butyrate</t>
   </si>
   <si>
@@ -286,7 +283,10 @@
     <t>{'pH':[4,8.5]}</t>
   </si>
   <si>
-    <t>ace ==  (pH * 0.04  - 0.1607) * glu , prop ==  ( pH * 0.06469780336862108 + -0.24145773170908502) * glu, but ==  ( pH * -0.1258514835498583 + 1.1420129213229466) * glu</t>
+    <t>open_fermentation_polynomial_ESCAPE33.json</t>
+  </si>
+  <si>
+    <t>yield_of</t>
   </si>
 </sst>
 </file>
@@ -909,15 +909,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
+      <xdr:colOff>327660</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>143510</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>706120</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -932,8 +932,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="527050" y="1600200"/>
-          <a:ext cx="4442460" cy="3543300"/>
+          <a:off x="327660" y="1554480"/>
+          <a:ext cx="4447540" cy="3520440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1288,7 +1288,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1587,25 +1587,25 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>3</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1752,27 +1752,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2DC50F-7E38-4E45-9660-C41E1DA6142A}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.21875" customWidth="1"/>
-    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1796875" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>74</v>
       </c>
@@ -2011,16 +2011,16 @@
         <v>45</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>31</v>
@@ -2052,23 +2052,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8D8FB7-0FD2-42C3-9D82-0A6D9AE32488}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -2082,16 +2082,19 @@
         <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
@@ -2104,17 +2107,20 @@
       <c r="D2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>46</v>
       </c>
@@ -2127,17 +2133,20 @@
       <c r="D3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>69</v>
       </c>
@@ -2150,17 +2159,20 @@
       <c r="D4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="G4" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="H4" s="16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>48</v>
       </c>
@@ -2173,17 +2185,20 @@
       <c r="D5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="H5" s="16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>70</v>
       </c>
@@ -2196,37 +2211,43 @@
       <c r="D6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="G6" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="H6" s="16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="15">
-        <v>0</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16" t="s">
+      <c r="H7" s="16" t="s">
         <v>76</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2240,24 +2261,24 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="12" max="12" width="8.77734375" customWidth="1"/>
+    <col min="12" max="12" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2292,7 +2313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -2327,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2362,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2397,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2432,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2467,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -2502,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -2537,7 +2558,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2572,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2607,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -2688,9 +2709,9 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>59</v>
       </c>
@@ -2698,7 +2719,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2706,7 +2727,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -2714,7 +2735,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -2722,7 +2743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -2730,7 +2751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2738,7 +2759,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2746,7 +2767,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>67</v>
       </c>
